--- a/TopTal.xlsx
+++ b/TopTal.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="ins_new_company.sql" sheetId="2" r:id="rId2"/>
+    <sheet name="Tax.pdd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
   <si>
     <t>As a solution, please prepare the following:</t>
   </si>
@@ -71,53 +73,13 @@
     <t>Tax.pdd</t>
   </si>
   <si>
-    <t>cre_all.sql</t>
-  </si>
-  <si>
     <t>cre_all_tables</t>
   </si>
   <si>
     <t>ins_all_tables</t>
   </si>
   <si>
-    <t xml:space="preserve">drop_all_tables
-</t>
-  </si>
-  <si>
     <t>cre_auto_bu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drop sequence seq_address_master;
-drop table tax_payment_ind;
-drop table tax_payment_corp;
-drop table business_owner;
-drop table taxpayer_corp;
-drop table taxpayer_ind;
-drop table tax_agency;
-drop table address_master;
-drop table tax_type;
-</t>
-  </si>
-  <si>
-    <t>at cre_tax_type;
-at cre_address_master;
-at cre_tax_agency;
-at cre_taxpayer_ind;
-at cre_taxpayer_corp;
-at cre_tax_payment_ind;
-at cre_tax_payment_corp;
-at cre_business_owner;
-at cre_v_businesses_owned;</t>
-  </si>
-  <si>
-    <t>at ins_tax_type;
-at ins_address_master;
-at ins_taxpayer_ind;
-at ins_taxpayer_corp;
-at ins_business_owner;
-at ins_tax_agency;
-at ins_tax_payment_ind;
-at ins_tax_payment_corp;</t>
   </si>
   <si>
     <t xml:space="preserve">BEGIN
@@ -139,83 +101,6 @@
 END;
 /
 </t>
-  </si>
-  <si>
-    <t>get_month_total_per_taxpayer_id3</t>
-  </si>
-  <si>
-    <t>set scan on
-set echo off
-set veri off
-set paus off
-set feed off
-set autoprint on
-column tp_cuit_number  heading "Taxpayer ID" format 9999999999
-column tc_corp_name    heading "Taxpayer Name" format A30
-column "Monthly Total" format  99,999,999.99
-variable x refcursor 
-begin
-if &amp;1 &lt; 10000 then
-  open :x for select tc.tc_cuit_number, tc.tc_corp_name, sum(ta.ta_payment_amount) AS "Monthly Total"
-  from   taxpayer_corp tc, tax_payment_corp ta
-  where  tc.tc_cuit_number = &amp;1
-  and    tc.tc_cuit_number = ta.ta_cuit_number
-  and    ta_payment_date between '01-'||'&amp;&amp;2' and last_day('01-'||'&amp;2')
-  group by tc.tc_cuit_number, tc.tc_corp_name;
-else
-  open :x for select tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
-  from   taxpayer_ind tp, tax_payment_ind ti
-  where  tp.tp_document_number = &amp;1
-  and    tp.tp_document_number = ti.ti_document_number
-  and    ti_payment_date between '01-'||'&amp;&amp;2' and last_day('01-'||'&amp;2')
-  group by tp.tp_document_number, tp.tp_taxpayer_name;
-end if;
-end;
-/
-set feed on
-set paus on</t>
-  </si>
-  <si>
-    <t>set scan on
-set echo off
-set veri off
-column tp_document_number heading "Taxpayer ID" format 9999999999
-column tp_taxpayer_name heading "Taxpayer Name" format A30
-column "Monthly Total" format 99,999,999.99
-select tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
-from   taxpayer_ind tp, tax_payment_ind ti
-where  tp.tp_document_number = &amp;1
-and    tp.tp_document_number = ti.ti_document_number
-and    ti_payment_date between '01-'||'&amp;&amp;2' and last_day('01-'||'&amp;2')
-group by tp.tp_document_number, tp.tp_taxpayer_name
-/</t>
-  </si>
-  <si>
-    <t>at get_month_total_per_taxpayer_id3 1 2 
-at get_month_total_per_taxpayer_id2 1 2
-at get_month_total_per_taxpayer_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set scan on
-set echo off
-set veri off
-column tp_document_number heading "Taxpayer ID" format 9999999999
-column tp_taxpayer_name heading "Taxpayer Name" format A30
-column "Monthly Total" format 99,999,999.99
-undefine date
-prompt Enter taxpayer_id as a number (12345):
-prompt Enter date in MON-YY format:
-select tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
-from   taxpayer_ind tp, tax_payment_ind ti
-where  tp.tp_document_number = &amp;taxpayer_id
-and    tp.tp_document_number = ti.ti_document_number
-and    ti_payment_date between '01-'||'&amp;&amp;date' and last_day('01-'||'&amp;date')
-group by tp.tp_document_number, tp.tp_taxpayer_name
-/
-</t>
-  </si>
-  <si>
-    <t>get_month_total_per_businesses_owned 'Jon Johnny' AUG-17</t>
   </si>
   <si>
     <t xml:space="preserve">set scan on
@@ -241,30 +126,13 @@
 </t>
   </si>
   <si>
-    <t>ins_new_company</t>
-  </si>
-  <si>
-    <t>PL/SQL script</t>
-  </si>
-  <si>
     <t>ins_tax_payment_corp</t>
   </si>
   <si>
     <t>ins_tax_payment_ind</t>
   </si>
   <si>
-    <t>insert into TAX_PAYMENT_IND (TI_TAX_AGENCY, TI_DOCUMENT_NUMBER, TI_TAX_TYPE, TI_PAYMENT_DATE, TI_PAYMENT_AMOUNT)
-values (160, 22222, 'RE', to_date('25-5-2017', 'dd-mm-yyyy'), 54.35);</t>
-  </si>
-  <si>
-    <t>insert into TAX_PAYMENT_CORP (TA_TAX_AGENCY, TA_CUIT_NUMBER, TA_TAX_TYPE, TA_PAYMENT_DATE, TA_PAYMENT_AMOUNT)
-values (160, 74, 'GI', to_date('01-08-2017', 'dd-mm-yyyy'), 3573.69);</t>
-  </si>
-  <si>
     <t>ins_new_company.sql</t>
-  </si>
-  <si>
-    <t>C:\APP\AVI\VIRTUAL\ADMIN\ORCL\DPDUMP\ORATOPTAL.DMP</t>
   </si>
   <si>
     <t>select job_name, job_type, job_creator, job_action, repeat_interval
@@ -278,17 +146,1016 @@
     <t>primary key (ta_tax_agency,ta_cuit_number,ta_tax_type,ta_payment_date)</t>
   </si>
   <si>
-    <t>create user abraham/bruck</t>
-  </si>
-  <si>
-    <t>zoltan/varadi</t>
+    <t>--  @ins_new_company.sql</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>next_cuit         TAXPAYER_CORP.TC_CUIT_NUMBER%TYPE;</t>
+  </si>
+  <si>
+    <t>next_boid         BUSINESS_OWNER.BO_OWNER_ID%TYPE;</t>
+  </si>
+  <si>
+    <t>owner_id          BUSINESS_OWNER.BO_OWNER_ID%TYPE;</t>
+  </si>
+  <si>
+    <t>new_owner_id      BUSINESS_OWNER.BO_OWNER_ID%TYPE;</t>
+  </si>
+  <si>
+    <t>owner_ind_id      TAXPAYER_IND.TP_DOCUMENT_NUMBER%TYPE;</t>
+  </si>
+  <si>
+    <t>Owner_Name        BUSINESS_OWNER.BO_OWNER_NAME%TYPE;</t>
+  </si>
+  <si>
+    <t>Owner_DOB         BUSINESS_OWNER.BO_DOB%TYPE;</t>
+  </si>
+  <si>
+    <t>addr_mstr_id      ADDRESS_MASTER.AM_ADDRESS_ID%TYPE;</t>
+  </si>
+  <si>
+    <t>in_TMP_ID         TMP_TAXPAYER_CORP.TMP_ID%TYPE;</t>
+  </si>
+  <si>
+    <t>Company_Name      TAXPAYER_CORP.TC_CORP_NAME%TYPE;</t>
+  </si>
+  <si>
+    <t>Company_Startdate TAXPAYER_CORP.TC_CORP_NAME%TYPE;</t>
+  </si>
+  <si>
+    <t>Company_Website   TAXPAYER_CORP.TC_CORP_NAME%TYPE;</t>
+  </si>
+  <si>
+    <t>Street_Address    ADDRESS_MASTER.AM_ADDRESS1%TYPE;</t>
+  </si>
+  <si>
+    <t>Street_Address2   ADDRESS_MASTER.AM_ADDRESS2%TYPE;</t>
+  </si>
+  <si>
+    <t>City              ADDRESS_MASTER.AM_CITY%TYPE;</t>
+  </si>
+  <si>
+    <t>State             ADDRESS_MASTER.AM_STATE_PROV%TYPE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country           ADDRESS_MASTER.AM_COUNTRY%TYPE; </t>
+  </si>
+  <si>
+    <t>Zip               ADDRESS_MASTER.AM_POSTAL_CODE%TYPE;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eMail             ADDRESS_MASTER.AM_EMAIL%TYPE; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone             ADDRESS_MASTER.AM_HOME_PHONE%TYPE; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile            ADDRESS_MASTER.AM_CELL_PHONE%TYPE; </t>
+  </si>
+  <si>
+    <t>Fax               ADDRESS_MASTER.AM_FAX%TYPE;</t>
+  </si>
+  <si>
+    <t>CURSOR GetNewCorp IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT TMP_ID, NC_CORP_NAME, NC_START_DATE, NC_WEBSITE, NC_ADDRESS1, NC_ADDRESS2, NC_CITY, NC_STATE_PROV, NC_COUNTRY, NC_POSTAL_CODE, NC_EMAIL, NC_HOME_PHONE, NC_CELL_PHONE, NC_FAX, NC_OWNER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM   TMP_TAXPAYER_CORP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>CURSOR GetNewOwner (in_TMP_ID IN NUMBER) IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SELECT NO_OWNER_NAME, NO_DOB, NO_ADDRESS1, NO_ADDRESS2, NO_CITY, NO_STATE_PROV, NO_COUNTRY, NO_POSTAL_CODE, NO_EMAIL, NO_HOME_PHONE, NO_CELL_PHONE, NO_FAX, NO_OWNER_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FROM   TMP_BUSINESS_OWNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  WHERE  TMP_ID      = in_TMP_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ORDER BY NO_OWNER_ID;</t>
+  </si>
+  <si>
+    <t>BEGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   OPEN GetNewCorp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FOR x IN 1 .. 20000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FETCH GetNewCorp INTO in_TMP_ID, Company_Name, Company_Startdate, Company_Website, Street_Address, Street_Address2, City, State, Country, Zip, eMail, Phone, Mobile, Fax, new_owner_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXIT WHEN GetNewCorp%notfound;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select max(TC_CUIT_NUMBER)+1 into next_cuit from TAXPAYER_CORP;</t>
+  </si>
+  <si>
+    <t>select seq_address_master.NEXTVAL into addr_mstr_id from dual;</t>
+  </si>
+  <si>
+    <t>DBMS_OUTPUT.PUT_LINE('new_owner_id from Corp: '||new_owner_id);</t>
+  </si>
+  <si>
+    <t>insert into ADDRESS_MASTER (AM_ADDRESS_ID, AM_ADDRESS1,    AM_ADDRESS2,     AM_CITY, AM_STATE_PROV, AM_COUNTRY, AM_POSTAL_CODE, AM_EMAIL, AM_HOME_PHONE, AM_CELL_PHONE, AM_FAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    values                     (addr_mstr_id,  Street_Address, Street_Address2, City,    State,         Country,    Zip,            eMail,    Phone,         Mobile,        Fax);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    insert into TAXPAYER_CORP (TC_CUIT_NUMBER, TC_CORP_NAME,     TC_START_DATE,     TC_WEBSITE,      TC_ADDRESS_ID, TC_OWNER_ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    values                    (next_cuit,      Company_Name,     Company_Startdate, Company_Website, addr_mstr_id,  new_owner_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OPEN GetNewOwner (in_TMP_ID);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FETCH GetNewOwner INTO Owner_Name, Owner_DOB, Street_Address, Street_Address2, City, State, Country, Zip, eMail, Phone, Mobile, Fax, new_owner_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        EXIT WHEN GetNewOwner%notfound;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DBMS_OUTPUT.PUT_LINE('new_owner_id from Ownr: '||new_owner_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   BEGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        select TP_DOCUMENT_NUMBER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        into   owner_ind_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        from   TAXPAYER_IND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        where  TP_TAXPAYER_NAME = Owner_Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        and    TP_DOB           = Owner_DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EXCEPTION WHEN others THEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     NULL;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   END;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   BEGIN   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        select bo_owner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        into   owner_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        from   business_owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        where  BO_OWNER_NAME = Owner_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        and    BO_DOB        = Owner_DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DBMS_OUTPUT.PUT_LINE('owner_id from business_owner: '||owner_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   DBMS_OUTPUT.PUT_LINE('new_owner_id after bus_owner: '||new_owner_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        IF owner_id IS NULL and new_owner_id IS NULL then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           select max(bo_owner_id)+1 into new_owner_id from business_owner;</t>
+  </si>
+  <si>
+    <t>--   new_owner_id := owner_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        END IF;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        DBMS_OUTPUT.PUT_LINE('new_owner_id after ELSE: '||new_owner_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        insert into ADDRESS_MASTER (AM_ADDRESS_ID, AM_ADDRESS1,    AM_ADDRESS2,     AM_CITY, AM_STATE_PROV, AM_COUNTRY, AM_POSTAL_CODE, AM_EMAIL, AM_HOME_PHONE, AM_CELL_PHONE, AM_FAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        values                     (addr_mstr_id,  Street_Address, Street_Address2, City,    State,         Country,    Zip,            eMail,    Phone,         Mobile,        Fax);</t>
+  </si>
+  <si>
+    <t>insert into BUSINESS_OWNER (BO_OWNER_ID, BO_CUIT_NUMBER, BO_TAXPAYER_NUMBER, BO_OWNER_NAME, BO_DOB,    BO_ADDRESS_ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        values                     (new_owner_id, next_cuit,     owner_ind_id,       Owner_Name,    Owner_DOB, addr_mstr_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       END LOOP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       CLOSE GetNewOwner;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   END LOOP;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CLOSE GetNewCorp;</t>
+  </si>
+  <si>
+    <t>END;</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>sho err</t>
+  </si>
+  <si>
+    <t>set scan on
+set echo off
+set veri off
+column tp_document_number heading "Taxpayer ID"   format 9999999999
+column tp_taxpayer_name   heading "Taxpayer Name" format A30
+column "Month"            heading "Month"         format A6
+column "Monthly Total" format 99,999,999.99
+ttitle "Monthly Total Tax Paid by Taxpayer"
+break on Month
+select '&amp;2' as "Month", tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
+from   taxpayer_ind tp, tax_payment_ind ti
+where  (tp.tp_document_number = '&amp;1' or '&amp;1' IS NULL)
+and    tp.tp_document_number = ti.ti_document_number
+and    ti_payment_date between '01-'||'&amp;2' and last_day('01-'||'&amp;2')
+group by tp.tp_document_number, tp.tp_taxpayer_name
+/</t>
+  </si>
+  <si>
+    <t>set scan on
+set echo off
+set veri off
+column tp_document_number heading "Taxpayer ID"   format 9999999999
+column tp_taxpayer_name   heading "Taxpayer Name" format A30
+column Month              heading "Month"         format A6
+column "Monthly Total" format 99,999,999.99
+ttitle "Monthly Total Tax Paid by Taxpayer"
+break on Month
+undefine date
+prompt Enter taxpayer_id as a number (12345) or Press Enter for All taxpayers:
+prompt Enter date in MON-YY format:
+select '&amp;&amp;date' as Month, tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
+from   taxpayer_ind tp, tax_payment_ind ti
+where  (tp.tp_document_number = '&amp;&amp;taxpayer_id' or '&amp;taxpayer_id' IS NULL)
+and    tp.tp_document_number = ti.ti_document_number
+and    ti_payment_date between '01-'||'&amp;date' and last_day('01-'||'&amp;date')
+group by tp.tp_document_number, tp.tp_taxpayer_name
+/</t>
+  </si>
+  <si>
+    <t>ins_new_company see second tab of worksheet</t>
+  </si>
+  <si>
+    <t>created user abraham/bruck</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drop_all_tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>drop sequence seq_address_master;
+drop table tax_payment_ind;
+drop table tax_payment_corp;
+drop table business_owner;
+drop table taxpayer_corp;
+drop table taxpayer_ind;
+drop table tax_agency;
+drop table address_master;
+drop table tax_type;
+drop table TMP_TAXPAYER_CORP;
+drop table TMP_BUSINESS_OWNER;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@cre_tax_type;
+@cre_address_master;
+@cre_tax_agency;
+@cre_taxpayer_ind;
+@cre_taxpayer_corp;
+@cre_tax_payment_ind;
+@cre_tax_payment_corp;
+@cre_business_owner;
+@cre_v_businesses_owned;
+@cre_TMP_TAXPAYER_CORP;
+@cre_TMP_BUSINESS_OWNER;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ins_tax_type;
+@ins_address_master;
+@ins_taxpayer_ind;
+@ins_taxpayer_corp;
+@ins_business_owner;
+@ins_tax_agency;
+@ins_tax_payment_ind;
+@ins_tax_payment_corp;
+@ins_TMP_BUSINESS_OWNER;
+@ins_TMP_TAXPAYER_CORP;</t>
+    </r>
+  </si>
+  <si>
+    <t>insert into TAX_PAYMENT_IND (TI_TAX_AGENCY, TI_DOCUMENT_NUMBER, TI_TAX_TYPE, TI_PAYMENT_DATE, TI_PAYMENT_AMOUNT)
+values (160, 22222, 'RE', to_date('25-03-2017', 'dd-mm-yyyy'), 584.35);</t>
+  </si>
+  <si>
+    <t>insert into TAX_PAYMENT_CORP (TA_TAX_AGENCY, TA_CUIT_NUMBER, TA_TAX_TYPE, TA_PAYMENT_DATE, TA_PAYMENT_AMOUNT)
+values (160, 74, 'GI', to_date('21-08-2017', 'dd-mm-yyyy'), 73.69);</t>
+  </si>
+  <si>
+    <t>No two payments for the same taxpayer and the same tax type in the same collection agency on the same day can occur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\User\Public has 2 files myexp.dmp and ORATOPTAL.DMP / exp and expdp respectively
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export_db.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cd \Users\Public
+exp abraham/bruck@orcl full=y file=\Users\Public\myexp.dmp
+expdp abraham/bruck@orcl content=ALL FULL=Y directory=dmpdir dumpfile=oraTopTal.dmp NOLOGFILE=YES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cre_auto_bu.sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CREATE or replace DIRECTORY dmpdir AS 'C:\Users\Public';
+-- SELECT directory_path FROM dba_directories WHERE directory_name = 'DMPDIR';
+BEGIN
+  dbms_scheduler.drop_job(job_name =&gt; 'EXP_DB');
+EXCEPTION WHEN others THEN
+  null;
+END;
+/
+BEGIN
+DBMS_SCHEDULER.create_job (
+job_name =&gt; 'EXP_DB',
+job_type =&gt; 'executable',
+job_action =&gt; 'C:\Windows\system32\cmd.exe /c c:\Users\Public\export_db.bat',
+start_date =&gt; SYSTIMESTAMP,
+repeat_interval =&gt; 'FREQ=HOURLY; INTERVAL=2;',
+end_date =&gt; NULL,
+enabled =&gt; TRUE,
+comments =&gt; 'export_db_every 2 hour');
+END;
+/
+BEGIN 
+DBMS_SCHEDULER.RUN_JOB('EXP_DB');
+END;
+/</t>
+    </r>
+  </si>
+  <si>
+    <t>See third Tab below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set scan on
+set echo off
+set veri off
+set paus off
+set feed off
+set autoprint on
+column tc_cuit_number  heading "CUIT Number"   format 9999999999
+column tc_corp_name    heading "Company Name" format A30
+column tp_document_number  heading "Taxpayer ID"   format 9999999999
+column tp_taxpayer_name    heading "Taxpayer Name" format A30
+column Month           heading "Month"         format A6
+column "Monthly Total" format  99,999,999.99
+ttitle "Monthly Total Tax Paid"
+break on Month
+variable x refcursor 
+begin
+if '&amp;1' &lt; 10000 or '&amp;3' = 'C' then
+  open :x for select '&amp;2' as Month, tc.tc_cuit_number, tc.tc_corp_name, sum(ta.ta_payment_amount) AS "Monthly Total"
+  from   taxpayer_corp tc, tax_payment_corp ta
+  where  (tc.tc_cuit_number = '&amp;1' or '&amp;1' IS NULL)
+  and    tc.tc_cuit_number = ta.ta_cuit_number
+  and    ta_payment_date between '01-'||'&amp;2' and last_day('01-'||'&amp;2')
+  group by tc.tc_cuit_number, tc.tc_corp_name;
+end if;
+</t>
+  </si>
+  <si>
+    <t>if '&amp;1' &gt;= 10000 or '&amp;3' = 'T' then
+  open :x for select '&amp;2' as Month, tp.tp_document_number, tp.tp_taxpayer_name, sum(ti.ti_payment_amount) AS "Monthly Total"
+  from   taxpayer_ind tp, tax_payment_ind ti
+  where  (tp.tp_document_number = '&amp;1' or '&amp;1' IS NULL)
+  and    tp.tp_document_number = ti.ti_document_number
+  and    ti_payment_date between '01-'||'&amp;2' and last_day('01-'||'&amp;2')
+  group by tp.tp_document_number, tp.tp_taxpayer_name;
+end if;
+    DBMS_OUTPUT.PUT_LINE('==================================================================================');
+ DBMS_OUTPUT.PUT_LINE('===== ****** NOTE ****** =========================================================');
+    DBMS_OUTPUT.PUT_LINE('==================================================================================');
+    DBMS_OUTPUT.PUT_LINE('Parameters were not properly entered ...');
+ DBMS_OUTPUT.PUT_LINE('First parameter must be a Taxpayer Number or ''''');
+ DBMS_OUTPUT.PUT_LINE('Second parameter must be a Month Year in MON-YY format');
+ DBMS_OUTPUT.PUT_LINE('Third parameter must be ''T'' for Taxpayer individual or ''C'' for Company or ''''');
+ DBMS_OUTPUT.PUT_LINE('==================================================================================');
+end;
+/
+set feed on
+set paus on</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 =&gt; Monthly Total Tax Paid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>First parameter must be a Taxpayer Number or ''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Second parameter must be a Month Year in MON-YY format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Third parameter must be ''T'' for Taxpayer individual or ''C'' for Company or ''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 =&gt; Monthly Total Tax Paid by Taxpayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1st param number or '', 2nd MON-YY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1st user prompt number or '', 2nd MON-YY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@get_month_total_per_taxpayer_id3 '22222 'AUG-17' ''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @get_month_total_per_taxpayer_id3 74 'AUG-17' ''</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @get_month_total_per_taxpayer_id3 '' 'AUG-17' 'T'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @get_month_total_per_taxpayer_id3 '' 'AUG-17' 'C'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @get_month_total_per_taxpayer_id2 22222 'AUG-17' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> @get_month_total_per_taxpayer_id2 '' 'AUG-17' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ @get_month_total_per_taxpayer_id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cre_auto_bu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creates the Oracle Directory for expdp and the schedule to run it
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export_db.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> runs the exp and expdp scripts and writes the results to
+C:\Users\Public (due to all kinds of permissions issues on Windows).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Should be copied to the C\Users\Public directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cre_all.sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+spoo cre_all
+prompt drop_all_tables ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@drop_all_tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prompt cre_all_tables ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@cre_all_tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prompt ins_all_tables ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ins_all_tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prompt cre_auto_bu ...
+@cre_auto_bu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompt ins_new_company ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">@ins_new_company </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(see econd Tab below)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prompt Done ...
+spoo off
+quit</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@get_month_total_per_businesses_owned 'Jon Johnny' AUG-17
+@get_month_total_per_businesses_owned '' AUG-17
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By specific Owner and Month
+For all Owners by Specific Month
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create or replace procedure ins_new_company </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +1169,110 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,11 +1308,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -366,9 +1367,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -386,8 +1384,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,6 +1440,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>312457</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>113333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9F272B-BC27-4145-A927-205501E6E02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14942857" cy="7733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,20 +1788,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.85546875" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="68.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
     <col min="5" max="5" width="101.140625" customWidth="1"/>
-    <col min="6" max="6" width="90" customWidth="1"/>
+    <col min="6" max="6" width="100.140625" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -731,10 +1819,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="23" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,60 +1851,58 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
+      <c r="C7" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,130 +1912,682 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:7" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="Tax.pdd"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="318.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="276" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="e">
+        <f>--ELSE</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TopTal.xlsx
+++ b/TopTal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="13950"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
   <si>
     <t>As a solution, please prepare the following:</t>
   </si>
@@ -1149,6 +1149,14 @@
   </si>
   <si>
     <t xml:space="preserve">create or replace procedure ins_new_company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conn sys/manager as sysdba
+alter session set "_ORACLE_SCRIPT"=true;
+create user abraham identified by bruck;
+grant dba to abraham;
+conn abraham/bruck
+</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,15 +1853,17 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2073,7 @@
   </sheetPr>
   <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/TopTal.xlsx
+++ b/TopTal.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>As a solution, please prepare the following:</t>
   </si>
@@ -80,27 +80,6 @@
   </si>
   <si>
     <t>cre_auto_bu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEGIN
-  dbms_scheduler.drop_job(job_name =&gt; 'EXP_DB');
-EXCEPTION WHEN others THEN
-  null;
-END;
-/
-BEGIN
-DBMS_SCHEDULER.create_job (
-job_name =&gt; 'EXP_DB',
-job_type =&gt; 'executable',
-job_action =&gt; 'expdp abraham/bruck content=ALL FULL=Y dumpfile=oraTopTal.dmp',
-start_date =&gt; SYSTIMESTAMP,
-repeat_interval =&gt; 'FREQ=MINUTELY; INTERVAL=120;',
-end_date =&gt; NULL,
-enabled =&gt; TRUE,
-comments =&gt; 'export_db_every_2 hours');
-END;
-/
-</t>
   </si>
   <si>
     <t xml:space="preserve">set scan on
@@ -545,33 +524,30 @@
     <t>No two payments for the same taxpayer and the same tax type in the same collection agency on the same day can occur</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">C:\User\Public has 2 files myexp.dmp and ORATOPTAL.DMP / exp and expdp respectively
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>export_db.bat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-cd \Users\Public
-exp abraham/bruck@orcl full=y file=\Users\Public\myexp.dmp
-expdp abraham/bruck@orcl content=ALL FULL=Y directory=dmpdir dumpfile=oraTopTal.dmp NOLOGFILE=YES</t>
-    </r>
+    <t>CREATE or replace DIRECTORY dmpdir AS 'C:\Users\Public';
+-- SELECT directory_path FROM dba_directories WHERE directory_name = 'DMPDIR';
+BEGIN
+  dbms_scheduler.drop_job(job_name =&gt; 'EXP_DB');
+EXCEPTION WHEN others THEN
+  null;
+END;
+/
+BEGIN
+DBMS_SCHEDULER.create_job (
+job_name =&gt; 'EXP_DB',
+job_type =&gt; 'executable',
+job_action =&gt; 'C:\Windows\system32\cmd.exe /c c:\Users\Public\export_db.bat',
+start_date =&gt; SYSTIMESTAMP,
+repeat_interval =&gt; 'FREQ=HOURLY; INTERVAL=2;',
+end_date =&gt; NULL,
+enabled =&gt; TRUE,
+comments =&gt; 'export_db_every 2 hour');
+END;
+/
+BEGIN 
+DBMS_SCHEDULER.RUN_JOB('EXP_DB');
+END;
+/</t>
   </si>
   <si>
     <r>
@@ -936,63 +912,6 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cre_auto_bu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> creates the Oracle Directory for expdp and the schedule to run it
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>export_db.bat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> runs the exp and expdp scripts and writes the results to
-C:\Users\Public (due to all kinds of permissions issues on Windows).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Should be copied to the C\Users\Public directory</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1151,12 +1070,183 @@
     <t xml:space="preserve">create or replace procedure ins_new_company </t>
   </si>
   <si>
-    <t xml:space="preserve">conn sys/manager as sysdba
+    <t>alter session set "_ORACLE_SCRIPT"=true;
+create user abraham identified by bruck;
+grant dba to abraham;
+conn abraham/bruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conn sys/Google18 as sysdba
 alter session set "_ORACLE_SCRIPT"=true;
 create user abraham identified by bruck;
 grant dba to abraham;
 conn abraham/bruck
 </t>
+  </si>
+  <si>
+    <t>17:48:38 SYS/oraTopTal &gt;@create_new_user
+Session altered.
+User created.
+Grant succeeded.
+Connected.
+17:48:57 ABRAHAM/oraTopTal &gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cre_auto_bu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creates the Oracle Directory for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the schedule to run it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export_db.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> runs the exp and expdp scripts and writes the results to
+C:\Users\Public (due to all kinds of permissions issues on Windows).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export_db.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should be copied to the C:\Users\Public directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\User\Public has myexp.dmp and ORATOPTAL.DMP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export_db.bat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+cd \Users\Public
+exp abraham/bruck@oraTopTal full=y file=\Users\Public\myexp.dmp
+del \Users\Public\oraTopTal.dmp
+expdp abraham/bruck@oraTopTal content=ALL FULL=Y directory=dmpdir dumpfile=oraTopTal.dmp NOLOGFILE=YES
+</t>
+    </r>
+  </si>
+  <si>
+    <t>12:16:20 SYS/TopTal &gt;@create_new_user
+Session altered.
+User created.
+Grant succeeded.
+Connected.
+12:16:20 ABRAHAM/TopTal &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">created Instance TopTal with dbca OS command
+logged in as sys -&gt; sqlplus sys/Google18@TopTal as sysdba
+ran </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create_new_user.sql
+But then after that, got all kinds of Access denied and Permissions errors.
+So I needed to unistall both instances and just install oraTopTal</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1360,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1432,6 +1522,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1451,6 +1547,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3723830</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1933533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35308172-2B77-4511-BBFE-04751F516016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18716625" y="31832550"/>
+          <a:ext cx="3561905" cy="333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1798,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1954,7 @@
     <col min="3" max="3" width="68.28515625" customWidth="1"/>
     <col min="4" max="4" width="56.7109375" customWidth="1"/>
     <col min="5" max="5" width="101.140625" customWidth="1"/>
-    <col min="6" max="6" width="100.140625" customWidth="1"/>
+    <col min="6" max="6" width="103.28515625" customWidth="1"/>
     <col min="7" max="7" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1831,7 +1976,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -1853,18 +1998,20 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="243" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1872,13 +2019,13 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.25">
@@ -1889,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,11 +2047,11 @@
         <v>16</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="358.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1912,7 +2059,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,19 +2078,19 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>131</v>
-      </c>
       <c r="E12" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="376.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,7 +2099,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="13"/>
       <c r="E13" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="1"/>
@@ -1963,13 +2110,13 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -1979,11 +2126,11 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -1993,40 +2140,46 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>140</v>
+      </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="382.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,16 +2188,16 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2063,6 +2216,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2084,415 +2238,415 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2503,82 +2657,82 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
